--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47389C1-0A92-7843-BDC9-E9B0D87DEB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828BA856-91FA-EB48-9623-D03EE7CB041B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="19420" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="count" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
   <si>
     <t>block</t>
   </si>
@@ -56,9 +56,6 @@
     <t>round</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>plant_#</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>5/6</t>
-  </si>
-  <si>
     <t>11/12</t>
   </si>
   <si>
@@ -84,13 +78,73 @@
   </si>
   <si>
     <t>alate_alive</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>220 ctrl</t>
+  </si>
+  <si>
+    <t>MgCl2 ctrl</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,13 +165,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCBABA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -147,22 +225,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -172,6 +262,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFCBABA"/>
       <color rgb="FFFFC2F2"/>
       <color rgb="FFC2EEFC"/>
     </mruColors>
@@ -504,13 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4490847-926B-8D4B-846F-DB50C440AE4A}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,7 +615,7 @@
     <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +623,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -541,151 +632,519 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>220</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="5">
+        <v>3</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>220</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="5">
+        <v>3</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>220</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>220</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>220</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="L5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3">
+        <v>7</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="5">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="M10" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>220</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828BA856-91FA-EB48-9623-D03EE7CB041B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E17A02E-9B20-1340-A9D9-4A4F5075A4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="29">
   <si>
     <t>block</t>
   </si>
@@ -47,9 +47,6 @@
     <t>treatment</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -59,24 +56,9 @@
     <t>plant_#</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>nymphs</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>11/12</t>
-  </si>
-  <si>
-    <t>17/18</t>
-  </si>
-  <si>
-    <t>yes/no</t>
-  </si>
-  <si>
     <t>alate_alive</t>
   </si>
   <si>
@@ -138,6 +120,9 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -172,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,14 +227,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,6 +237,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,10 +601,10 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,19 +626,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -644,19 +647,19 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>0</v>
@@ -665,19 +668,19 @@
         <v>2</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -688,7 +691,7 @@
         <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -696,53 +699,53 @@
       <c r="E2" s="3">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G2" s="3">
         <v>8</v>
       </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>220</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="3">
-        <v>220</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="5">
-        <v>3</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>9</v>
+      <c r="H2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -753,7 +756,7 @@
         <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -761,53 +764,53 @@
       <c r="E3" s="3">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>26</v>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="3">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="5">
-        <v>3</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>9</v>
+      <c r="H3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -818,7 +821,7 @@
         <v>220</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -826,29 +829,53 @@
       <c r="E4" s="3">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>26</v>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>30</v>
+      <c r="H4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -859,7 +886,7 @@
         <v>220</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -867,30 +894,48 @@
       <c r="E5" s="3">
         <v>6</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>29</v>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="3">
         <v>22</v>
       </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
         <v>220</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4">
         <v>2</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="L5" s="8">
+        <v>13</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="4">
+        <v>34</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="4">
+        <v>3</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -900,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -908,30 +953,48 @@
       <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>29</v>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G6" s="3">
         <v>17</v>
       </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4">
         <v>2</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="L6" s="8">
+        <v>13</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="4">
+        <v>13</v>
+      </c>
+      <c r="O6" s="3">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="4">
+        <v>3</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -941,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -949,29 +1012,53 @@
       <c r="E7" s="3">
         <v>6</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>29</v>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G7" s="3">
         <v>7</v>
       </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="4">
         <v>2</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>12</v>
+      <c r="L7" s="8">
+        <v>13</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -982,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -990,29 +1077,53 @@
       <c r="E8" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>29</v>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G8" s="3">
         <v>18</v>
       </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4">
         <v>2</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="8">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4">
         <v>12</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1023,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -1031,40 +1142,58 @@
       <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G9" s="3">
         <v>26</v>
       </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>13</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="5">
-        <v>2</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="N9" s="4">
+        <v>24</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="4">
+        <v>3</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -1072,40 +1201,58 @@
       <c r="E10" s="3">
         <v>6</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>14</v>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K10" s="3">
         <v>2</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="L10" s="9">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="4">
+        <v>3</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="4">
+        <v>3</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -1113,34 +1260,58 @@
       <c r="E11" s="3">
         <v>6</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>14</v>
+      <c r="F11" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G12" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E17A02E-9B20-1340-A9D9-4A4F5075A4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BCC4BF-B907-7C4E-8EDC-8288449380E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="29">
   <si>
     <t>block</t>
   </si>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,10 +239,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -250,9 +247,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -601,10 +595,10 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T23" sqref="T23"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,46 +699,46 @@
       <c r="G2" s="3">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="10" t="s">
+      <c r="H2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -770,46 +764,46 @@
       <c r="G3" s="3">
         <v>14</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="10" t="s">
+      <c r="H3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -835,46 +829,46 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="10" t="s">
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -912,7 +906,7 @@
       <c r="K5" s="4">
         <v>2</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="3">
         <v>13</v>
       </c>
       <c r="M5" s="5" t="s">
@@ -933,9 +927,15 @@
       <c r="R5" s="4">
         <v>3</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="S5" s="4">
+        <v>19</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="4">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -971,7 +971,7 @@
       <c r="K6" s="4">
         <v>2</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="3">
         <v>13</v>
       </c>
       <c r="M6" s="5" t="s">
@@ -992,9 +992,15 @@
       <c r="R6" s="4">
         <v>3</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="S6" s="4">
+        <v>19</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1030,7 +1036,7 @@
       <c r="K7" s="4">
         <v>2</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="3">
         <v>13</v>
       </c>
       <c r="M7" s="6" t="s">
@@ -1039,25 +1045,25 @@
       <c r="N7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" s="10" t="s">
+      <c r="O7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1095,7 +1101,7 @@
       <c r="K8" s="4">
         <v>2</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="3">
         <v>13</v>
       </c>
       <c r="M8" s="6" t="s">
@@ -1104,25 +1110,25 @@
       <c r="N8" s="4">
         <v>12</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" s="10" t="s">
+      <c r="O8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1160,7 +1166,7 @@
       <c r="K9" s="4">
         <v>2</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="3">
         <v>13</v>
       </c>
       <c r="M9" s="5" t="s">
@@ -1181,9 +1187,15 @@
       <c r="R9" s="4">
         <v>3</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="S9" s="4">
+        <v>19</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1219,7 +1231,7 @@
       <c r="K10" s="3">
         <v>2</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>13</v>
       </c>
       <c r="M10" s="7" t="s">
@@ -1240,9 +1252,15 @@
       <c r="R10" s="4">
         <v>3</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="S10" s="4">
+        <v>19</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1266,46 +1284,46 @@
       <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="10" t="s">
+      <c r="H11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="9" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BCC4BF-B907-7C4E-8EDC-8288449380E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D774DD3-4156-6641-B014-A64A0BD28A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="29">
   <si>
     <t>block</t>
   </si>
@@ -592,13 +592,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4490847-926B-8D4B-846F-DB50C440AE4A}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1332,6 +1332,720 @@
         <v>27</v>
       </c>
     </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>220</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>220</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>220</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>220</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>220</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>220</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>220</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>220</v>
+      </c>
+      <c r="C20" s="4">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3">
+        <v>220</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <v>220</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
+        <v>220</v>
+      </c>
+      <c r="C23" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3">
+        <v>220</v>
+      </c>
+      <c r="C24" s="4">
+        <v>12</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3">
+        <v>220</v>
+      </c>
+      <c r="C25" s="4">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3">
+        <v>220</v>
+      </c>
+      <c r="C26" s="4">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3">
+        <v>220</v>
+      </c>
+      <c r="C27" s="4">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>220</v>
+      </c>
+      <c r="C28" s="4">
+        <v>16</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3">
+        <v>220</v>
+      </c>
+      <c r="C29" s="4">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3">
+        <v>220</v>
+      </c>
+      <c r="C30" s="4">
+        <v>18</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3">
+        <v>220</v>
+      </c>
+      <c r="C31" s="4">
+        <v>19</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="3">
+        <v>220</v>
+      </c>
+      <c r="C32" s="4">
+        <v>20</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>21</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>22</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>23</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>24</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>25</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>26</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>27</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>2</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>28</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>29</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>30</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>2</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>31</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>32</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>33</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4">
+        <v>34</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>35</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>2</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>36</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>37</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>38</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>2</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>39</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>40</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="4">
+        <v>41</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="4">
+        <v>42</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D774DD3-4156-6641-B014-A64A0BD28A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B2C948-F8E7-884B-91BC-CE205E690E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="29">
   <si>
     <t>block</t>
   </si>
@@ -129,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,8 +156,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +194,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAF2D0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -216,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,6 +261,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,10 +610,10 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1345,9 +1360,15 @@
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="E13" s="4">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -1362,9 +1383,15 @@
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="E14" s="4">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -1379,9 +1406,15 @@
       <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="E15" s="4">
+        <v>7</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
@@ -1396,9 +1429,15 @@
       <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="E16" s="4">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="4">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -1413,9 +1452,15 @@
       <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="E17" s="4">
+        <v>7</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
@@ -1430,9 +1475,15 @@
       <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="E18" s="4">
+        <v>7</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
@@ -1447,9 +1498,15 @@
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="E19" s="4">
+        <v>7</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
@@ -1464,9 +1521,15 @@
       <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="E20" s="4">
+        <v>7</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="4">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
@@ -1481,9 +1544,15 @@
       <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="4">
+        <v>7</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="4">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
@@ -1498,9 +1567,15 @@
       <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="E22" s="4">
+        <v>7</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="4">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
@@ -1515,9 +1590,15 @@
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="E23" s="4">
+        <v>7</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -1532,9 +1613,15 @@
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="E24" s="4">
+        <v>7</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="4">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
@@ -1549,9 +1636,15 @@
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="E25" s="4">
+        <v>7</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
@@ -1566,9 +1659,15 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="E26" s="4">
+        <v>7</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
@@ -1583,9 +1682,15 @@
       <c r="D27" s="4">
         <v>1</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="E27" s="4">
+        <v>7</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
@@ -1600,9 +1705,15 @@
       <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="E28" s="4">
+        <v>7</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
@@ -1617,9 +1728,15 @@
       <c r="D29" s="4">
         <v>1</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="E29" s="4">
+        <v>7</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -1634,9 +1751,15 @@
       <c r="D30" s="4">
         <v>1</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="E30" s="4">
+        <v>7</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
@@ -1651,9 +1774,15 @@
       <c r="D31" s="4">
         <v>1</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="E31" s="4">
+        <v>7</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
@@ -1668,9 +1797,15 @@
       <c r="D32" s="4">
         <v>1</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="E32" s="4">
+        <v>7</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
@@ -1685,9 +1820,15 @@
       <c r="D33" s="4">
         <v>1</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="E33" s="4">
+        <v>7</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
@@ -1702,9 +1843,15 @@
       <c r="D34" s="4">
         <v>1</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="E34" s="4">
+        <v>7</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
@@ -1719,9 +1866,15 @@
       <c r="D35" s="4">
         <v>1</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="E35" s="4">
+        <v>7</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
@@ -1736,9 +1889,15 @@
       <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="E36" s="4">
+        <v>7</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
@@ -1753,9 +1912,15 @@
       <c r="D37" s="4">
         <v>1</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="E37" s="4">
+        <v>7</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
@@ -1770,9 +1935,15 @@
       <c r="D38" s="4">
         <v>1</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="E38" s="4">
+        <v>7</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
@@ -1787,9 +1958,15 @@
       <c r="D39" s="4">
         <v>1</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="E39" s="4">
+        <v>7</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
@@ -1804,9 +1981,15 @@
       <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="E40" s="4">
+        <v>7</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
@@ -1821,9 +2004,15 @@
       <c r="D41" s="4">
         <v>1</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="E41" s="4">
+        <v>7</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
@@ -1838,9 +2027,15 @@
       <c r="D42" s="4">
         <v>1</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="E42" s="4">
+        <v>7</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
@@ -1855,9 +2050,15 @@
       <c r="D43" s="4">
         <v>1</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="E43" s="4">
+        <v>7</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
@@ -1872,9 +2073,15 @@
       <c r="D44" s="4">
         <v>1</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="E44" s="4">
+        <v>7</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
@@ -1889,9 +2096,15 @@
       <c r="D45" s="4">
         <v>1</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="E45" s="4">
+        <v>7</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
@@ -1906,9 +2119,15 @@
       <c r="D46" s="4">
         <v>1</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="E46" s="4">
+        <v>7</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="4">
+        <v>28</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
@@ -1923,9 +2142,15 @@
       <c r="D47" s="4">
         <v>1</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="E47" s="4">
+        <v>7</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
@@ -1940,9 +2165,15 @@
       <c r="D48" s="4">
         <v>1</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="E48" s="4">
+        <v>7</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
@@ -1957,9 +2188,15 @@
       <c r="D49" s="4">
         <v>1</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="E49" s="4">
+        <v>7</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
@@ -1974,9 +2211,15 @@
       <c r="D50" s="4">
         <v>1</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="E50" s="4">
+        <v>7</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="4">
+        <v>28</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
@@ -1991,9 +2234,15 @@
       <c r="D51" s="4">
         <v>1</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="E51" s="4">
+        <v>7</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
@@ -2008,9 +2257,15 @@
       <c r="D52" s="4">
         <v>1</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="E52" s="4">
+        <v>7</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
@@ -2025,9 +2280,15 @@
       <c r="D53" s="4">
         <v>1</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="E53" s="4">
+        <v>7</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
@@ -2042,9 +2303,15 @@
       <c r="D54" s="4">
         <v>1</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="E54" s="4">
+        <v>7</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B2C948-F8E7-884B-91BC-CE205E690E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C69E77-0305-4049-BFA6-D21670E27E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
@@ -610,10 +610,10 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C69E77-0305-4049-BFA6-D21670E27E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB34702-91C9-9E46-BAFF-EEAD08F98794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="30">
   <si>
     <t>block</t>
   </si>
@@ -124,12 +124,15 @@
   <si>
     <t>L</t>
   </si>
+  <si>
+    <t xml:space="preserve">Control </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,8 +165,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +210,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCBABA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,11 +240,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,6 +293,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,13 +651,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4490847-926B-8D4B-846F-DB50C440AE4A}">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1369,6 +1413,48 @@
       <c r="G13" s="4">
         <v>20</v>
       </c>
+      <c r="H13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -1392,6 +1478,48 @@
       <c r="G14" s="4">
         <v>16</v>
       </c>
+      <c r="H14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -1415,6 +1543,34 @@
       <c r="G15" s="4">
         <v>4</v>
       </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>220</v>
+      </c>
+      <c r="J15" s="4">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4">
+        <v>13</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
@@ -1438,8 +1594,50 @@
       <c r="G16" s="4">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -1461,8 +1659,36 @@
       <c r="G17" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>220</v>
+      </c>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17" s="3">
+        <v>13</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="4">
+        <v>12</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -1484,8 +1710,36 @@
       <c r="G18" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="13">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>220</v>
+      </c>
+      <c r="J18" s="4">
+        <v>6</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2</v>
+      </c>
+      <c r="L18" s="3">
+        <v>13</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="4">
+        <v>9</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -1507,8 +1761,36 @@
       <c r="G19" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="14">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>220</v>
+      </c>
+      <c r="J19" s="4">
+        <v>7</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3">
+        <v>13</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="4">
+        <v>13</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -1530,8 +1812,36 @@
       <c r="G20" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="13">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>220</v>
+      </c>
+      <c r="J20" s="4">
+        <v>8</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2</v>
+      </c>
+      <c r="L20" s="3">
+        <v>13</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -1553,8 +1863,36 @@
       <c r="G21" s="4">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="14">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>220</v>
+      </c>
+      <c r="J21" s="4">
+        <v>9</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2</v>
+      </c>
+      <c r="L21" s="3">
+        <v>13</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -1576,8 +1914,36 @@
       <c r="G22" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>220</v>
+      </c>
+      <c r="J22" s="4">
+        <v>10</v>
+      </c>
+      <c r="K22" s="4">
+        <v>2</v>
+      </c>
+      <c r="L22" s="8">
+        <v>13</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -1599,8 +1965,50 @@
       <c r="G23" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2</v>
       </c>
@@ -1622,8 +2030,36 @@
       <c r="G24" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="13">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>220</v>
+      </c>
+      <c r="J24" s="4">
+        <v>12</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>13</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="4">
+        <v>4</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -1645,8 +2081,36 @@
       <c r="G25" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="14">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>220</v>
+      </c>
+      <c r="J25" s="4">
+        <v>13</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>13</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -1668,8 +2132,50 @@
       <c r="G26" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -1691,8 +2197,36 @@
       <c r="G27" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="13">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>220</v>
+      </c>
+      <c r="J27" s="4">
+        <v>15</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2</v>
+      </c>
+      <c r="L27" s="3">
+        <v>13</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="4">
+        <v>11</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -1714,8 +2248,36 @@
       <c r="G28" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="14">
+        <v>2</v>
+      </c>
+      <c r="I28" s="3">
+        <v>220</v>
+      </c>
+      <c r="J28" s="4">
+        <v>16</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+      <c r="L28" s="3">
+        <v>13</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -1737,8 +2299,50 @@
       <c r="G29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -1760,8 +2364,50 @@
       <c r="G30" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -1783,8 +2429,50 @@
       <c r="G31" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2</v>
       </c>
@@ -1806,8 +2494,36 @@
       <c r="G32" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="13">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3">
+        <v>220</v>
+      </c>
+      <c r="J32" s="4">
+        <v>20</v>
+      </c>
+      <c r="K32" s="4">
+        <v>2</v>
+      </c>
+      <c r="L32" s="3">
+        <v>13</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2</v>
       </c>
@@ -1829,8 +2545,36 @@
       <c r="G33" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="14">
+        <v>2</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>21</v>
+      </c>
+      <c r="K33" s="4">
+        <v>2</v>
+      </c>
+      <c r="L33" s="3">
+        <v>13</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="4">
+        <v>15</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>2</v>
       </c>
@@ -1852,8 +2596,36 @@
       <c r="G34" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="4">
+        <v>2</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>22</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2</v>
+      </c>
+      <c r="L34" s="3">
+        <v>13</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="4">
+        <v>4</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2</v>
       </c>
@@ -1875,8 +2647,36 @@
       <c r="G35" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>23</v>
+      </c>
+      <c r="K35" s="4">
+        <v>2</v>
+      </c>
+      <c r="L35" s="3">
+        <v>13</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="4">
+        <v>3</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>2</v>
       </c>
@@ -1898,8 +2698,36 @@
       <c r="G36" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="4">
+        <v>2</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>24</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2</v>
+      </c>
+      <c r="L36" s="3">
+        <v>13</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="4">
+        <v>3</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>2</v>
       </c>
@@ -1921,8 +2749,36 @@
       <c r="G37" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4">
+        <v>25</v>
+      </c>
+      <c r="K37" s="4">
+        <v>2</v>
+      </c>
+      <c r="L37" s="8">
+        <v>13</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>2</v>
       </c>
@@ -1944,8 +2800,36 @@
       <c r="G38" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="4">
+        <v>2</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>26</v>
+      </c>
+      <c r="K38" s="4">
+        <v>2</v>
+      </c>
+      <c r="L38" s="4">
+        <v>13</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="4">
+        <v>7</v>
+      </c>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -1967,8 +2851,36 @@
       <c r="G39" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="2">
+        <v>2</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>27</v>
+      </c>
+      <c r="K39" s="4">
+        <v>2</v>
+      </c>
+      <c r="L39" s="4">
+        <v>13</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="4">
+        <v>10</v>
+      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -1990,8 +2902,50 @@
       <c r="G40" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U40" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -2013,8 +2967,36 @@
       <c r="G41" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" s="4">
+        <v>2</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>29</v>
+      </c>
+      <c r="K41" s="4">
+        <v>2</v>
+      </c>
+      <c r="L41" s="3">
+        <v>13</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="4">
+        <v>6</v>
+      </c>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -2036,8 +3018,36 @@
       <c r="G42" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="2">
+        <v>2</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>30</v>
+      </c>
+      <c r="K42" s="4">
+        <v>2</v>
+      </c>
+      <c r="L42" s="8">
+        <v>13</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="4">
+        <v>13</v>
+      </c>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2</v>
       </c>
@@ -2059,8 +3069,36 @@
       <c r="G43" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="4">
+        <v>2</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>31</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2</v>
+      </c>
+      <c r="L43" s="4">
+        <v>13</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="4">
+        <v>20</v>
+      </c>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2</v>
       </c>
@@ -2082,8 +3120,36 @@
       <c r="G44" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>32</v>
+      </c>
+      <c r="K44" s="4">
+        <v>2</v>
+      </c>
+      <c r="L44" s="4">
+        <v>13</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="4">
+        <v>6</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2</v>
       </c>
@@ -2105,8 +3171,50 @@
       <c r="G45" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U45" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -2128,8 +3236,36 @@
       <c r="G46" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" s="4">
+        <v>2</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>34</v>
+      </c>
+      <c r="K46" s="4">
+        <v>2</v>
+      </c>
+      <c r="L46" s="3">
+        <v>13</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="4">
+        <v>14</v>
+      </c>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2</v>
       </c>
@@ -2151,8 +3287,36 @@
       <c r="G47" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="2">
+        <v>2</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4">
+        <v>35</v>
+      </c>
+      <c r="K47" s="4">
+        <v>2</v>
+      </c>
+      <c r="L47" s="8">
+        <v>13</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="4">
+        <v>11</v>
+      </c>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2</v>
       </c>
@@ -2174,8 +3338,50 @@
       <c r="G48" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2</v>
       </c>
@@ -2197,8 +3403,36 @@
       <c r="G49" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="4">
+        <v>2</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>37</v>
+      </c>
+      <c r="K49" s="4">
+        <v>2</v>
+      </c>
+      <c r="L49" s="3">
+        <v>13</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="4">
+        <v>4</v>
+      </c>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2</v>
       </c>
@@ -2220,8 +3454,36 @@
       <c r="G50" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="4">
+        <v>2</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4">
+        <v>38</v>
+      </c>
+      <c r="K50" s="4">
+        <v>2</v>
+      </c>
+      <c r="L50" s="8">
+        <v>13</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="4">
+        <v>5</v>
+      </c>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2</v>
       </c>
@@ -2243,8 +3505,50 @@
       <c r="G51" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U51" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>2</v>
       </c>
@@ -2266,8 +3570,36 @@
       <c r="G52" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" s="4">
+        <v>2</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" s="4">
+        <v>40</v>
+      </c>
+      <c r="K52" s="4">
+        <v>2</v>
+      </c>
+      <c r="L52" s="3">
+        <v>13</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="4">
+        <v>16</v>
+      </c>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2</v>
       </c>
@@ -2289,8 +3621,36 @@
       <c r="G53" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" s="4">
+        <v>2</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="4">
+        <v>43</v>
+      </c>
+      <c r="K53" s="4">
+        <v>2</v>
+      </c>
+      <c r="L53" s="8">
+        <v>13</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2</v>
       </c>
@@ -2310,6 +3670,972 @@
         <v>8</v>
       </c>
       <c r="G54" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3">
+        <v>220</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>7</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>3</v>
+      </c>
+      <c r="B57" s="3">
+        <v>220</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>7</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>3</v>
+      </c>
+      <c r="B58" s="3">
+        <v>220</v>
+      </c>
+      <c r="C58" s="4">
+        <v>3</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>7</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3">
+        <v>220</v>
+      </c>
+      <c r="C59" s="4">
+        <v>4</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>7</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3">
+        <v>220</v>
+      </c>
+      <c r="C60" s="4">
+        <v>5</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>7</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>3</v>
+      </c>
+      <c r="B61" s="3">
+        <v>220</v>
+      </c>
+      <c r="C61" s="4">
+        <v>6</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>7</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>3</v>
+      </c>
+      <c r="B62" s="3">
+        <v>220</v>
+      </c>
+      <c r="C62" s="4">
+        <v>7</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>7</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3">
+        <v>220</v>
+      </c>
+      <c r="C63" s="4">
+        <v>8</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>7</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>3</v>
+      </c>
+      <c r="B64" s="3">
+        <v>220</v>
+      </c>
+      <c r="C64" s="4">
+        <v>9</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>7</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>3</v>
+      </c>
+      <c r="B65" s="3">
+        <v>220</v>
+      </c>
+      <c r="C65" s="4">
+        <v>10</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>7</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>3</v>
+      </c>
+      <c r="B66" s="3">
+        <v>220</v>
+      </c>
+      <c r="C66" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>7</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>3</v>
+      </c>
+      <c r="B67" s="3">
+        <v>220</v>
+      </c>
+      <c r="C67" s="4">
+        <v>12</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>7</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>3</v>
+      </c>
+      <c r="B68" s="3">
+        <v>220</v>
+      </c>
+      <c r="C68" s="4">
+        <v>13</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>7</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3">
+        <v>220</v>
+      </c>
+      <c r="C69" s="4">
+        <v>14</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>7</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>3</v>
+      </c>
+      <c r="B70" s="3">
+        <v>220</v>
+      </c>
+      <c r="C70" s="4">
+        <v>15</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>7</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3">
+        <v>220</v>
+      </c>
+      <c r="C71" s="4">
+        <v>16</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>7</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>3</v>
+      </c>
+      <c r="B72" s="3">
+        <v>220</v>
+      </c>
+      <c r="C72" s="4">
+        <v>17</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>7</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>3</v>
+      </c>
+      <c r="B73" s="3">
+        <v>220</v>
+      </c>
+      <c r="C73" s="4">
+        <v>18</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>7</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3">
+        <v>220</v>
+      </c>
+      <c r="C74" s="4">
+        <v>19</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>7</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>3</v>
+      </c>
+      <c r="B75" s="3">
+        <v>220</v>
+      </c>
+      <c r="C75" s="4">
+        <v>20</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>7</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>3</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4">
+        <v>21</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>7</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>3</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4">
+        <v>22</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4">
+        <v>7</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>3</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4">
+        <v>23</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <v>7</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>3</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4">
+        <v>24</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>7</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>3</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="4">
+        <v>25</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4">
+        <v>7</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>3</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="4">
+        <v>26</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4">
+        <v>7</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>3</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="4">
+        <v>27</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4">
+        <v>7</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>3</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="4">
+        <v>28</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>7</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>3</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="4">
+        <v>29</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>7</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>3</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="4">
+        <v>30</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>7</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>3</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4">
+        <v>31</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
+        <v>7</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>3</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="4">
+        <v>32</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>7</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>3</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="4">
+        <v>33</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4">
+        <v>7</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>3</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4">
+        <v>34</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>7</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>3</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4">
+        <v>35</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4">
+        <v>7</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>3</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4">
+        <v>36</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
+        <v>7</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>3</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="4">
+        <v>37</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="4">
+        <v>7</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>3</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4">
+        <v>38</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4">
+        <v>7</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>3</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="4">
+        <v>39</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="4">
+        <v>7</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>3</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="4">
+        <v>40</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+      <c r="E95" s="4">
+        <v>7</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>3</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="4">
+        <v>41</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="E96" s="4">
+        <v>7</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>3</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="4">
+        <v>42</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97" s="4">
+        <v>7</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB34702-91C9-9E46-BAFF-EEAD08F98794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC92DCF-AA13-D948-BDDB-7DC950075979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="16940" activeTab="1" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="count" sheetId="3" r:id="rId1"/>
+    <sheet name="leaf washes_plates" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="61">
   <si>
     <t>block</t>
   </si>
@@ -126,13 +127,106 @@
   </si>
   <si>
     <t xml:space="preserve">Control </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block 1 </t>
+  </si>
+  <si>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>100 µL 10mM MgCl2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contamated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Growth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MgCl2 Plant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round 2 </t>
+  </si>
+  <si>
+    <t>contaminaton</t>
+  </si>
+  <si>
+    <t>Plant D UD</t>
+  </si>
+  <si>
+    <t>Plant D 10^-1</t>
+  </si>
+  <si>
+    <t>Plant D 10^-2</t>
+  </si>
+  <si>
+    <t>Plant E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10mM MgCl2 </t>
+  </si>
+  <si>
+    <t>Ctrl plant K</t>
+  </si>
+  <si>
+    <t>TMTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too clumped to count (21 not clumped) </t>
+  </si>
+  <si>
+    <t>TMTC (not all pseudomonas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round 3 </t>
+  </si>
+  <si>
+    <t>Contam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl plant L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round 1 </t>
+  </si>
+  <si>
+    <t>Plant 41 10^-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant 42 UD </t>
+  </si>
+  <si>
+    <t>Normal Growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 ctrl plant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block 3 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,8 +266,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +315,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCBABA"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -257,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,6 +417,15 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -318,6 +434,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9D9C"/>
       <color rgb="FFFCBABA"/>
       <color rgb="FFFFC2F2"/>
       <color rgb="FFC2EEFC"/>
@@ -653,11 +770,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4490847-926B-8D4B-846F-DB50C440AE4A}">
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="198" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K78" sqref="K78"/>
+      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4643,4 +4760,427 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18175AD2-8A0D-324A-BF07-9C4606257893}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="F2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="F5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="21">
+        <v>3</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="21">
+        <v>5</v>
+      </c>
+      <c r="G9" s="24">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="21">
+        <v>6</v>
+      </c>
+      <c r="G10" s="24">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="22">
+        <v>8</v>
+      </c>
+      <c r="F11" s="21">
+        <v>7</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="21">
+        <v>8</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="22">
+        <v>4</v>
+      </c>
+      <c r="F13" s="21">
+        <v>9</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="21">
+        <v>10</v>
+      </c>
+      <c r="G14" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="21">
+        <v>12</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="F16" s="21">
+        <v>13</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="F17" s="21">
+        <v>15</v>
+      </c>
+      <c r="G17" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="21">
+        <v>16</v>
+      </c>
+      <c r="G18" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="21">
+        <v>20</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="21">
+        <v>21</v>
+      </c>
+      <c r="G20" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="21">
+        <v>22</v>
+      </c>
+      <c r="G21" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="21">
+        <v>23</v>
+      </c>
+      <c r="G22" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="21">
+        <v>24</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="19"/>
+      <c r="F24" s="21">
+        <v>25</v>
+      </c>
+      <c r="G24" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="21">
+        <v>26</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F26" s="21">
+        <v>27</v>
+      </c>
+      <c r="G26" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27" s="21">
+        <v>29</v>
+      </c>
+      <c r="G27" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F28" s="21">
+        <v>30</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29" s="21">
+        <v>31</v>
+      </c>
+      <c r="G29" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" s="21">
+        <v>32</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F31" s="21">
+        <v>34</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" s="21">
+        <v>35</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F33" s="21">
+        <v>37</v>
+      </c>
+      <c r="G33" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="21">
+        <v>38</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F35" s="21">
+        <v>40</v>
+      </c>
+      <c r="G35" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F36" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC92DCF-AA13-D948-BDDB-7DC950075979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE4E30B-8251-1349-AF58-A7AC6D38D20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="16940" activeTab="1" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28740" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="count" sheetId="3" r:id="rId1"/>
-    <sheet name="leaf washes_plates" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="30">
   <si>
     <t>block</t>
   </si>
@@ -128,105 +127,12 @@
   <si>
     <t xml:space="preserve">Control </t>
   </si>
-  <si>
-    <t xml:space="preserve">Block 1 </t>
-  </si>
-  <si>
-    <t>Round 1</t>
-  </si>
-  <si>
-    <t>100 µL 10mM MgCl2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contamated </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Growth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MgCl2 Plant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 2 </t>
-  </si>
-  <si>
-    <t>contaminaton</t>
-  </si>
-  <si>
-    <t>Plant D UD</t>
-  </si>
-  <si>
-    <t>Plant D 10^-1</t>
-  </si>
-  <si>
-    <t>Plant D 10^-2</t>
-  </si>
-  <si>
-    <t>Plant E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plant F </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plant G </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plant H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10mM MgCl2 </t>
-  </si>
-  <si>
-    <t>Ctrl plant K</t>
-  </si>
-  <si>
-    <t>TMTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Too clumped to count (21 not clumped) </t>
-  </si>
-  <si>
-    <t>TMTC (not all pseudomonas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 3 </t>
-  </si>
-  <si>
-    <t>Contam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ctrl plant L </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round 1 </t>
-  </si>
-  <si>
-    <t>Plant 41 10^-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plant 42 UD </t>
-  </si>
-  <si>
-    <t>Normal Growth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43 ctrl plant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block 3 </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,15 +172,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,12 +214,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCBABA"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -364,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,15 +310,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +318,6 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF9D9C"/>
       <color rgb="FFFCBABA"/>
       <color rgb="FFFFC2F2"/>
       <color rgb="FFC2EEFC"/>
@@ -770,11 +653,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4490847-926B-8D4B-846F-DB50C440AE4A}">
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4760,427 +4643,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18175AD2-8A0D-324A-BF07-9C4606257893}">
-  <dimension ref="A1:L36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="F2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="F5" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="21">
-        <v>3</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="21">
-        <v>5</v>
-      </c>
-      <c r="G9" s="24">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="21">
-        <v>6</v>
-      </c>
-      <c r="G10" s="24">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="22">
-        <v>8</v>
-      </c>
-      <c r="F11" s="21">
-        <v>7</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="21">
-        <v>8</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="22">
-        <v>4</v>
-      </c>
-      <c r="F13" s="21">
-        <v>9</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="21">
-        <v>10</v>
-      </c>
-      <c r="G14" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="21">
-        <v>12</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="F16" s="21">
-        <v>13</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="F17" s="21">
-        <v>15</v>
-      </c>
-      <c r="G17" s="24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="21">
-        <v>16</v>
-      </c>
-      <c r="G18" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="21">
-        <v>20</v>
-      </c>
-      <c r="G19" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="21">
-        <v>21</v>
-      </c>
-      <c r="G20" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="21">
-        <v>22</v>
-      </c>
-      <c r="G21" s="24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="21">
-        <v>23</v>
-      </c>
-      <c r="G22" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="21">
-        <v>24</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
-      <c r="F24" s="21">
-        <v>25</v>
-      </c>
-      <c r="G24" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="21">
-        <v>26</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F26" s="21">
-        <v>27</v>
-      </c>
-      <c r="G26" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F27" s="21">
-        <v>29</v>
-      </c>
-      <c r="G27" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F28" s="21">
-        <v>30</v>
-      </c>
-      <c r="G28" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F29" s="21">
-        <v>31</v>
-      </c>
-      <c r="G29" s="24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F30" s="21">
-        <v>32</v>
-      </c>
-      <c r="G30" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F31" s="21">
-        <v>34</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F32" s="21">
-        <v>35</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F33" s="21">
-        <v>37</v>
-      </c>
-      <c r="G33" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F34" s="21">
-        <v>38</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F35" s="21">
-        <v>40</v>
-      </c>
-      <c r="G35" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F36" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="24">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE45F560-3922-D34B-890C-3158CC6E3AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8252CEF7-9EF1-EB4E-832E-7715453A9167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28740" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
@@ -610,10 +610,10 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
+      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2137,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8252CEF7-9EF1-EB4E-832E-7715453A9167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5578CC4E-BA27-6E47-8C29-E1281DC51287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28740" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
@@ -610,10 +610,10 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomRight" sqref="A1:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5578CC4E-BA27-6E47-8C29-E1281DC51287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA79C27-834F-A641-9F51-A2BD2BE00B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28740" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="28">
   <si>
     <t>block</t>
   </si>
@@ -160,7 +160,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +203,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -231,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,6 +277,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,13 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4490847-926B-8D4B-846F-DB50C440AE4A}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:I54"/>
+      <selection pane="bottomRight" activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3349,7 +3370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -3366,6 +3387,982 @@
         <v>4</v>
       </c>
       <c r="F97" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>4</v>
+      </c>
+      <c r="B99" s="3">
+        <v>220</v>
+      </c>
+      <c r="C99" s="4">
+        <v>1</v>
+      </c>
+      <c r="D99" s="4">
+        <v>7</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="4">
+        <v>10</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="14"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>4</v>
+      </c>
+      <c r="B100" s="3">
+        <v>220</v>
+      </c>
+      <c r="C100" s="4">
+        <v>2</v>
+      </c>
+      <c r="D100" s="4">
+        <v>7</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>4</v>
+      </c>
+      <c r="B101" s="3">
+        <v>220</v>
+      </c>
+      <c r="C101" s="4">
+        <v>3</v>
+      </c>
+      <c r="D101" s="4">
+        <v>7</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="4">
+        <v>20</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="14"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>4</v>
+      </c>
+      <c r="B102" s="3">
+        <v>220</v>
+      </c>
+      <c r="C102" s="4">
+        <v>4</v>
+      </c>
+      <c r="D102" s="4">
+        <v>7</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="4">
+        <v>0</v>
+      </c>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>4</v>
+      </c>
+      <c r="B103" s="3">
+        <v>220</v>
+      </c>
+      <c r="C103" s="4">
+        <v>5</v>
+      </c>
+      <c r="D103" s="4">
+        <v>7</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="4">
+        <v>10</v>
+      </c>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>4</v>
+      </c>
+      <c r="B104" s="3">
+        <v>220</v>
+      </c>
+      <c r="C104" s="4">
+        <v>6</v>
+      </c>
+      <c r="D104" s="4">
+        <v>7</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="4">
+        <v>37</v>
+      </c>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>4</v>
+      </c>
+      <c r="B105" s="3">
+        <v>220</v>
+      </c>
+      <c r="C105" s="4">
+        <v>7</v>
+      </c>
+      <c r="D105" s="4">
+        <v>7</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="4">
+        <v>2</v>
+      </c>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>4</v>
+      </c>
+      <c r="B106" s="3">
+        <v>220</v>
+      </c>
+      <c r="C106" s="4">
+        <v>8</v>
+      </c>
+      <c r="D106" s="4">
+        <v>7</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="4">
+        <v>0</v>
+      </c>
+      <c r="G106" s="14"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="14"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>4</v>
+      </c>
+      <c r="B107" s="3">
+        <v>220</v>
+      </c>
+      <c r="C107" s="4">
+        <v>9</v>
+      </c>
+      <c r="D107" s="4">
+        <v>7</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="4">
+        <v>0</v>
+      </c>
+      <c r="G107" s="14"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="14"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>4</v>
+      </c>
+      <c r="B108" s="3">
+        <v>220</v>
+      </c>
+      <c r="C108" s="4">
+        <v>10</v>
+      </c>
+      <c r="D108" s="4">
+        <v>7</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="4">
+        <v>8</v>
+      </c>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>4</v>
+      </c>
+      <c r="B109" s="3">
+        <v>220</v>
+      </c>
+      <c r="C109" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" s="4">
+        <v>7</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0</v>
+      </c>
+      <c r="G109" s="14"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="14"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>4</v>
+      </c>
+      <c r="B110" s="3">
+        <v>220</v>
+      </c>
+      <c r="C110" s="4">
+        <v>12</v>
+      </c>
+      <c r="D110" s="4">
+        <v>7</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110" s="4">
+        <v>22</v>
+      </c>
+      <c r="G110" s="14"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="14"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>4</v>
+      </c>
+      <c r="B111" s="3">
+        <v>220</v>
+      </c>
+      <c r="C111" s="4">
+        <v>13</v>
+      </c>
+      <c r="D111" s="4">
+        <v>7</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="14"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="14"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>4</v>
+      </c>
+      <c r="B112" s="3">
+        <v>220</v>
+      </c>
+      <c r="C112" s="4">
+        <v>14</v>
+      </c>
+      <c r="D112" s="4">
+        <v>7</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="4">
+        <v>25</v>
+      </c>
+      <c r="G112" s="14"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="14"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>4</v>
+      </c>
+      <c r="B113" s="3">
+        <v>220</v>
+      </c>
+      <c r="C113" s="4">
+        <v>15</v>
+      </c>
+      <c r="D113" s="4">
+        <v>7</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="4">
+        <v>19</v>
+      </c>
+      <c r="G113" s="14"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="14"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>4</v>
+      </c>
+      <c r="B114" s="3">
+        <v>220</v>
+      </c>
+      <c r="C114" s="4">
+        <v>16</v>
+      </c>
+      <c r="D114" s="4">
+        <v>7</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="4">
+        <v>0</v>
+      </c>
+      <c r="G114" s="14"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="14"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>4</v>
+      </c>
+      <c r="B115" s="3">
+        <v>220</v>
+      </c>
+      <c r="C115" s="4">
+        <v>17</v>
+      </c>
+      <c r="D115" s="4">
+        <v>7</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="4">
+        <v>0</v>
+      </c>
+      <c r="G115" s="14"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="14"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>4</v>
+      </c>
+      <c r="B116" s="3">
+        <v>220</v>
+      </c>
+      <c r="C116" s="4">
+        <v>18</v>
+      </c>
+      <c r="D116" s="4">
+        <v>7</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="4">
+        <v>13</v>
+      </c>
+      <c r="G116" s="14"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="14"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>4</v>
+      </c>
+      <c r="B117" s="3">
+        <v>220</v>
+      </c>
+      <c r="C117" s="4">
+        <v>19</v>
+      </c>
+      <c r="D117" s="4">
+        <v>7</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="4">
+        <v>30</v>
+      </c>
+      <c r="G117" s="14"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="14"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>4</v>
+      </c>
+      <c r="B118" s="3">
+        <v>220</v>
+      </c>
+      <c r="C118" s="4">
+        <v>20</v>
+      </c>
+      <c r="D118" s="4">
+        <v>7</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="4">
+        <v>23</v>
+      </c>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>4</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="4">
+        <v>21</v>
+      </c>
+      <c r="D119" s="4">
+        <v>7</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" s="4">
+        <v>23</v>
+      </c>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>4</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="4">
+        <v>22</v>
+      </c>
+      <c r="D120" s="4">
+        <v>7</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="4">
+        <v>18</v>
+      </c>
+      <c r="G120" s="14"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="14"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>4</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="4">
+        <v>23</v>
+      </c>
+      <c r="D121" s="4">
+        <v>7</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="4">
+        <v>18</v>
+      </c>
+      <c r="G121" s="14"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="14"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>4</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="4">
+        <v>24</v>
+      </c>
+      <c r="D122" s="4">
+        <v>7</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="4">
+        <v>21</v>
+      </c>
+      <c r="G122" s="14"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="14"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>4</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="4">
+        <v>25</v>
+      </c>
+      <c r="D123" s="4">
+        <v>7</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="4">
+        <v>0</v>
+      </c>
+      <c r="G123" s="14"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="14"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>4</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="4">
+        <v>26</v>
+      </c>
+      <c r="D124" s="4">
+        <v>7</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="4">
+        <v>5</v>
+      </c>
+      <c r="G124" s="14"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="14"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>4</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="4">
+        <v>27</v>
+      </c>
+      <c r="D125" s="4">
+        <v>7</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="4">
+        <v>21</v>
+      </c>
+      <c r="G125" s="14"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="14"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>4</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="4">
+        <v>28</v>
+      </c>
+      <c r="D126" s="4">
+        <v>7</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="4">
+        <v>3</v>
+      </c>
+      <c r="G126" s="14"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="14"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>4</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="4">
+        <v>29</v>
+      </c>
+      <c r="D127" s="4">
+        <v>7</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" s="4">
+        <v>0</v>
+      </c>
+      <c r="G127" s="14"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="14"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>4</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="4">
+        <v>30</v>
+      </c>
+      <c r="D128" s="4">
+        <v>7</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="4">
+        <v>4</v>
+      </c>
+      <c r="G128" s="14"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="14"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>4</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="4">
+        <v>31</v>
+      </c>
+      <c r="D129" s="4">
+        <v>7</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="4">
+        <v>10</v>
+      </c>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>4</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="4">
+        <v>32</v>
+      </c>
+      <c r="D130" s="4">
+        <v>7</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="4">
+        <v>25</v>
+      </c>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>4</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="4">
+        <v>33</v>
+      </c>
+      <c r="D131" s="4">
+        <v>7</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" s="4">
+        <v>9</v>
+      </c>
+      <c r="G131" s="14"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="14"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>4</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="4">
+        <v>34</v>
+      </c>
+      <c r="D132" s="4">
+        <v>7</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="4">
+        <v>8</v>
+      </c>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>4</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="4">
+        <v>35</v>
+      </c>
+      <c r="D133" s="4">
+        <v>7</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" s="4">
+        <v>16</v>
+      </c>
+      <c r="G133" s="14"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="14"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>4</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="4">
+        <v>36</v>
+      </c>
+      <c r="D134" s="4">
+        <v>7</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="4">
+        <v>22</v>
+      </c>
+      <c r="G134" s="14"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="14"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>4</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="4">
+        <v>37</v>
+      </c>
+      <c r="D135" s="4">
+        <v>7</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F135" s="4">
+        <v>12</v>
+      </c>
+      <c r="G135" s="14"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="14"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>4</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4">
+        <v>38</v>
+      </c>
+      <c r="D136" s="4">
+        <v>7</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F136" s="4">
+        <v>24</v>
+      </c>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>4</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="4">
+        <v>39</v>
+      </c>
+      <c r="D137" s="4">
+        <v>7</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="4">
+        <v>21</v>
+      </c>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>4</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="4">
+        <v>40</v>
+      </c>
+      <c r="D138" s="4">
+        <v>7</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="4">
+        <v>8</v>
+      </c>
+      <c r="G138" s="14"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="14"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>4</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="4">
+        <v>41</v>
+      </c>
+      <c r="D139" s="4">
+        <v>7</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G139" s="4"/>
+      <c r="H139" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>4</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="4">
+        <v>42</v>
+      </c>
+      <c r="D140" s="4">
+        <v>7</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" s="9" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA79C27-834F-A641-9F51-A2BD2BE00B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F46E4B-58C1-B342-AC0A-B56EEF4BCAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28740" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="28">
   <si>
     <t>block</t>
   </si>
@@ -628,13 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4490847-926B-8D4B-846F-DB50C440AE4A}">
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F136" sqref="F136"/>
+      <selection pane="bottomRight" activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -1116,8 +1116,9 @@
       <c r="I17" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -1145,8 +1146,9 @@
       <c r="I18" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -1174,8 +1176,9 @@
       <c r="I19" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -1203,8 +1206,9 @@
       <c r="I20" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -1233,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -1262,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2</v>
       </c>
@@ -1319,8 +1323,9 @@
       <c r="I24" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -1349,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -1378,7 +1383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -1406,8 +1411,9 @@
       <c r="I27" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -1436,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -1465,7 +1471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2</v>
       </c>
@@ -1580,8 +1586,9 @@
       <c r="I33" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>2</v>
       </c>
@@ -1609,8 +1616,9 @@
       <c r="I34" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2</v>
       </c>
@@ -1638,8 +1646,9 @@
       <c r="I35" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>2</v>
       </c>
@@ -1667,8 +1676,9 @@
       <c r="I36" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>2</v>
       </c>
@@ -1697,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>2</v>
       </c>
@@ -1725,8 +1735,9 @@
       <c r="I38" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -1754,8 +1765,9 @@
       <c r="I39" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -1784,7 +1796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -1812,8 +1824,9 @@
       <c r="I41" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -1841,8 +1854,9 @@
       <c r="I42" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2</v>
       </c>
@@ -1870,8 +1884,9 @@
       <c r="I43" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2</v>
       </c>
@@ -1899,8 +1914,9 @@
       <c r="I44" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2</v>
       </c>
@@ -1929,7 +1945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -1957,8 +1973,9 @@
       <c r="I46" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2</v>
       </c>
@@ -1986,8 +2003,9 @@
       <c r="I47" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2</v>
       </c>
@@ -2016,7 +2034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2</v>
       </c>
@@ -2044,8 +2062,9 @@
       <c r="I49" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2</v>
       </c>
@@ -2073,8 +2092,9 @@
       <c r="I50" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2</v>
       </c>
@@ -2103,7 +2123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>2</v>
       </c>
@@ -2131,8 +2151,9 @@
       <c r="I52" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2</v>
       </c>
@@ -2161,7 +2182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2</v>
       </c>
@@ -2181,7 +2202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -2209,8 +2230,9 @@
       <c r="I56" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -2239,7 +2261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>3</v>
       </c>
@@ -2267,8 +2289,9 @@
       <c r="I58" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>3</v>
       </c>
@@ -2297,7 +2320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>3</v>
       </c>
@@ -2326,7 +2349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>3</v>
       </c>
@@ -2355,7 +2378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>3</v>
       </c>
@@ -2384,7 +2407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>3</v>
       </c>
@@ -2413,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>3</v>
       </c>
@@ -2441,8 +2464,9 @@
       <c r="I64" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>3</v>
       </c>
@@ -2471,7 +2495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>3</v>
       </c>
@@ -2499,8 +2523,9 @@
       <c r="I66" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>3</v>
       </c>
@@ -2528,8 +2553,9 @@
       <c r="I67" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>3</v>
       </c>
@@ -2558,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>3</v>
       </c>
@@ -2586,8 +2612,9 @@
       <c r="I69" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>3</v>
       </c>
@@ -2615,8 +2642,9 @@
       <c r="I70" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>3</v>
       </c>
@@ -2644,8 +2672,9 @@
       <c r="I71" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>3</v>
       </c>
@@ -2673,8 +2702,9 @@
       <c r="I72" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>3</v>
       </c>
@@ -2702,8 +2732,9 @@
       <c r="I73" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>3</v>
       </c>
@@ -2731,8 +2762,9 @@
       <c r="I74" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>3</v>
       </c>
@@ -2761,7 +2793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>3</v>
       </c>
@@ -2790,7 +2822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -2818,8 +2850,9 @@
       <c r="I77" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -2847,8 +2880,9 @@
       <c r="I78" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>3</v>
       </c>
@@ -2876,8 +2910,9 @@
       <c r="I79" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>3</v>
       </c>
@@ -2906,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>3</v>
       </c>
@@ -2934,8 +2969,9 @@
       <c r="I81" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>3</v>
       </c>
@@ -2963,8 +2999,9 @@
       <c r="I82" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>3</v>
       </c>
@@ -2992,8 +3029,9 @@
       <c r="I83" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>3</v>
       </c>
@@ -3021,8 +3059,9 @@
       <c r="I84" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>3</v>
       </c>
@@ -3050,8 +3089,9 @@
       <c r="I85" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>3</v>
       </c>
@@ -3080,7 +3120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>3</v>
       </c>
@@ -3109,7 +3149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>3</v>
       </c>
@@ -3137,8 +3177,9 @@
       <c r="I88" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>3</v>
       </c>
@@ -3167,7 +3208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>3</v>
       </c>
@@ -3195,8 +3236,9 @@
       <c r="I90" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>3</v>
       </c>
@@ -3224,8 +3266,9 @@
       <c r="I91" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>3</v>
       </c>
@@ -3253,8 +3296,9 @@
       <c r="I92" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>3</v>
       </c>
@@ -3283,7 +3327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>3</v>
       </c>
@@ -3312,7 +3356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>3</v>
       </c>
@@ -3340,8 +3384,9 @@
       <c r="I95" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>3</v>
       </c>
@@ -3418,9 +3463,15 @@
       <c r="F99" s="4">
         <v>10</v>
       </c>
-      <c r="G99" s="14"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="14"/>
+      <c r="G99" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
@@ -3441,9 +3492,15 @@
       <c r="F100" s="4">
         <v>0</v>
       </c>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
+      <c r="G100" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
@@ -3464,9 +3521,15 @@
       <c r="F101" s="4">
         <v>20</v>
       </c>
-      <c r="G101" s="14"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="14"/>
+      <c r="G101" s="14">
+        <v>13</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
@@ -3487,9 +3550,15 @@
       <c r="F102" s="4">
         <v>0</v>
       </c>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
+      <c r="G102" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
@@ -3510,9 +3579,15 @@
       <c r="F103" s="4">
         <v>10</v>
       </c>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
+      <c r="G103" s="14">
+        <v>13</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="13">
+        <v>15</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
@@ -3533,9 +3608,15 @@
       <c r="F104" s="4">
         <v>37</v>
       </c>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
+      <c r="G104" s="14">
+        <v>13</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
@@ -3556,9 +3637,15 @@
       <c r="F105" s="4">
         <v>2</v>
       </c>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
+      <c r="G105" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
@@ -3579,9 +3666,15 @@
       <c r="F106" s="4">
         <v>0</v>
       </c>
-      <c r="G106" s="14"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="14"/>
+      <c r="G106" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
@@ -3602,9 +3695,15 @@
       <c r="F107" s="4">
         <v>0</v>
       </c>
-      <c r="G107" s="14"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="14"/>
+      <c r="G107" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
@@ -3625,9 +3724,15 @@
       <c r="F108" s="4">
         <v>8</v>
       </c>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
+      <c r="G108" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
@@ -3648,9 +3753,15 @@
       <c r="F109" s="4">
         <v>0</v>
       </c>
-      <c r="G109" s="14"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="14"/>
+      <c r="G109" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
@@ -3671,9 +3782,15 @@
       <c r="F110" s="4">
         <v>22</v>
       </c>
-      <c r="G110" s="14"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="14"/>
+      <c r="G110" s="14">
+        <v>13</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
@@ -3694,9 +3811,15 @@
       <c r="F111" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G111" s="14"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="14"/>
+      <c r="G111" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
@@ -3717,9 +3840,15 @@
       <c r="F112" s="4">
         <v>25</v>
       </c>
-      <c r="G112" s="14"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="14"/>
+      <c r="G112" s="14">
+        <v>13</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
@@ -3740,9 +3869,15 @@
       <c r="F113" s="4">
         <v>19</v>
       </c>
-      <c r="G113" s="14"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="14"/>
+      <c r="G113" s="14">
+        <v>13</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="14">
+        <v>17</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
@@ -3763,9 +3898,15 @@
       <c r="F114" s="4">
         <v>0</v>
       </c>
-      <c r="G114" s="14"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="14"/>
+      <c r="G114" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
@@ -3786,9 +3927,15 @@
       <c r="F115" s="4">
         <v>0</v>
       </c>
-      <c r="G115" s="14"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="14"/>
+      <c r="G115" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
@@ -3809,9 +3956,15 @@
       <c r="F116" s="4">
         <v>13</v>
       </c>
-      <c r="G116" s="14"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="14"/>
+      <c r="G116" s="14">
+        <v>13</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
@@ -3832,9 +3985,15 @@
       <c r="F117" s="4">
         <v>30</v>
       </c>
-      <c r="G117" s="14"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="14"/>
+      <c r="G117" s="14">
+        <v>13</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I117" s="14">
+        <v>20</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
@@ -3855,9 +4014,15 @@
       <c r="F118" s="4">
         <v>23</v>
       </c>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
+      <c r="G118" s="14">
+        <v>13</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="13">
+        <v>14</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
@@ -3878,9 +4043,15 @@
       <c r="F119" s="4">
         <v>23</v>
       </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
+      <c r="G119" s="14">
+        <v>13</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" s="13">
+        <v>17</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
@@ -3901,9 +4072,15 @@
       <c r="F120" s="4">
         <v>18</v>
       </c>
-      <c r="G120" s="14"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="14"/>
+      <c r="G120" s="14">
+        <v>13</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I120" s="14">
+        <v>13</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
@@ -3924,9 +4101,15 @@
       <c r="F121" s="4">
         <v>18</v>
       </c>
-      <c r="G121" s="14"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="14"/>
+      <c r="G121" s="14">
+        <v>13</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
@@ -3947,9 +4130,15 @@
       <c r="F122" s="4">
         <v>21</v>
       </c>
-      <c r="G122" s="14"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="14"/>
+      <c r="G122" s="14">
+        <v>13</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
@@ -3970,9 +4159,15 @@
       <c r="F123" s="4">
         <v>0</v>
       </c>
-      <c r="G123" s="14"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="14"/>
+      <c r="G123" s="14">
+        <v>13</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
@@ -3993,9 +4188,15 @@
       <c r="F124" s="4">
         <v>5</v>
       </c>
-      <c r="G124" s="14"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="14"/>
+      <c r="G124" s="14">
+        <v>13</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I124" s="14">
+        <v>21</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
@@ -4016,9 +4217,15 @@
       <c r="F125" s="4">
         <v>21</v>
       </c>
-      <c r="G125" s="14"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="14"/>
+      <c r="G125" s="14">
+        <v>13</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I125" s="14">
+        <v>13</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
@@ -4039,9 +4246,15 @@
       <c r="F126" s="4">
         <v>3</v>
       </c>
-      <c r="G126" s="14"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="14"/>
+      <c r="G126" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
@@ -4062,9 +4275,15 @@
       <c r="F127" s="4">
         <v>0</v>
       </c>
-      <c r="G127" s="14"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="14"/>
+      <c r="G127" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
@@ -4085,9 +4304,15 @@
       <c r="F128" s="4">
         <v>4</v>
       </c>
-      <c r="G128" s="14"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="14"/>
+      <c r="G128" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
@@ -4108,9 +4333,15 @@
       <c r="F129" s="4">
         <v>10</v>
       </c>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
+      <c r="G129" s="14">
+        <v>13</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" s="13">
+        <v>16</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
@@ -4131,9 +4362,15 @@
       <c r="F130" s="4">
         <v>25</v>
       </c>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
+      <c r="G130" s="14">
+        <v>13</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" s="13">
+        <v>16</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
@@ -4154,9 +4391,15 @@
       <c r="F131" s="4">
         <v>9</v>
       </c>
-      <c r="G131" s="14"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="14"/>
+      <c r="G131" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
@@ -4177,9 +4420,15 @@
       <c r="F132" s="4">
         <v>8</v>
       </c>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
+      <c r="G132" s="14">
+        <v>13</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
@@ -4200,9 +4449,15 @@
       <c r="F133" s="4">
         <v>16</v>
       </c>
-      <c r="G133" s="14"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="14"/>
+      <c r="G133" s="14">
+        <v>13</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="14">
+        <v>10</v>
+      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
@@ -4223,9 +4478,15 @@
       <c r="F134" s="4">
         <v>22</v>
       </c>
-      <c r="G134" s="14"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="14"/>
+      <c r="G134" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
@@ -4246,9 +4507,15 @@
       <c r="F135" s="4">
         <v>12</v>
       </c>
-      <c r="G135" s="14"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="14"/>
+      <c r="G135" s="14">
+        <v>13</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" s="14">
+        <v>10</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
@@ -4269,9 +4536,15 @@
       <c r="F136" s="4">
         <v>24</v>
       </c>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
+      <c r="G136" s="14">
+        <v>13</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" s="13">
+        <v>11</v>
+      </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
@@ -4292,9 +4565,15 @@
       <c r="F137" s="4">
         <v>21</v>
       </c>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
+      <c r="G137" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
@@ -4315,9 +4594,15 @@
       <c r="F138" s="4">
         <v>8</v>
       </c>
-      <c r="G138" s="14"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="14"/>
+      <c r="G138" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
@@ -4338,7 +4623,9 @@
       <c r="F139" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G139" s="4"/>
+      <c r="G139" s="14">
+        <v>13</v>
+      </c>
       <c r="H139" s="7" t="s">
         <v>4</v>
       </c>
@@ -4363,6 +4650,975 @@
         <v>4</v>
       </c>
       <c r="F140" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>5</v>
+      </c>
+      <c r="B142" s="3">
+        <v>220</v>
+      </c>
+      <c r="C142" s="4">
+        <v>1</v>
+      </c>
+      <c r="D142" s="4">
+        <v>7</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="4">
+        <v>27</v>
+      </c>
+      <c r="G142" s="14"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="14"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>5</v>
+      </c>
+      <c r="B143" s="3">
+        <v>220</v>
+      </c>
+      <c r="C143" s="4">
+        <v>2</v>
+      </c>
+      <c r="D143" s="4">
+        <v>7</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="4">
+        <v>56</v>
+      </c>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>5</v>
+      </c>
+      <c r="B144" s="3">
+        <v>220</v>
+      </c>
+      <c r="C144" s="4">
+        <v>3</v>
+      </c>
+      <c r="D144" s="4">
+        <v>7</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" s="4">
+        <v>17</v>
+      </c>
+      <c r="G144" s="14"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="14"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>5</v>
+      </c>
+      <c r="B145" s="3">
+        <v>220</v>
+      </c>
+      <c r="C145" s="4">
+        <v>4</v>
+      </c>
+      <c r="D145" s="4">
+        <v>7</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" s="4">
+        <v>31</v>
+      </c>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>5</v>
+      </c>
+      <c r="B146" s="3">
+        <v>220</v>
+      </c>
+      <c r="C146" s="4">
+        <v>5</v>
+      </c>
+      <c r="D146" s="4">
+        <v>7</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" s="4">
+        <v>17</v>
+      </c>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>5</v>
+      </c>
+      <c r="B147" s="3">
+        <v>220</v>
+      </c>
+      <c r="C147" s="4">
+        <v>6</v>
+      </c>
+      <c r="D147" s="4">
+        <v>7</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F147" s="4">
+        <v>22</v>
+      </c>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>5</v>
+      </c>
+      <c r="B148" s="3">
+        <v>220</v>
+      </c>
+      <c r="C148" s="4">
+        <v>7</v>
+      </c>
+      <c r="D148" s="4">
+        <v>7</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" s="4">
+        <v>29</v>
+      </c>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>5</v>
+      </c>
+      <c r="B149" s="3">
+        <v>220</v>
+      </c>
+      <c r="C149" s="4">
+        <v>8</v>
+      </c>
+      <c r="D149" s="4">
+        <v>7</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" s="4">
+        <v>22</v>
+      </c>
+      <c r="G149" s="14"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="14"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>5</v>
+      </c>
+      <c r="B150" s="3">
+        <v>220</v>
+      </c>
+      <c r="C150" s="4">
+        <v>9</v>
+      </c>
+      <c r="D150" s="4">
+        <v>7</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" s="4">
+        <v>36</v>
+      </c>
+      <c r="G150" s="14"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="14"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>5</v>
+      </c>
+      <c r="B151" s="3">
+        <v>220</v>
+      </c>
+      <c r="C151" s="4">
+        <v>10</v>
+      </c>
+      <c r="D151" s="4">
+        <v>7</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F151" s="4">
+        <v>13</v>
+      </c>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>5</v>
+      </c>
+      <c r="B152" s="3">
+        <v>220</v>
+      </c>
+      <c r="C152" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" s="4">
+        <v>7</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" s="4">
+        <v>0</v>
+      </c>
+      <c r="G152" s="14"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="14"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>5</v>
+      </c>
+      <c r="B153" s="3">
+        <v>220</v>
+      </c>
+      <c r="C153" s="4">
+        <v>12</v>
+      </c>
+      <c r="D153" s="4">
+        <v>7</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" s="4">
+        <v>19</v>
+      </c>
+      <c r="G153" s="14"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="14"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>5</v>
+      </c>
+      <c r="B154" s="3">
+        <v>220</v>
+      </c>
+      <c r="C154" s="4">
+        <v>13</v>
+      </c>
+      <c r="D154" s="4">
+        <v>7</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" s="4">
+        <v>18</v>
+      </c>
+      <c r="G154" s="14"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="14"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>5</v>
+      </c>
+      <c r="B155" s="3">
+        <v>220</v>
+      </c>
+      <c r="C155" s="4">
+        <v>14</v>
+      </c>
+      <c r="D155" s="4">
+        <v>7</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" s="4">
+        <v>16</v>
+      </c>
+      <c r="G155" s="14"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="14"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>5</v>
+      </c>
+      <c r="B156" s="3">
+        <v>220</v>
+      </c>
+      <c r="C156" s="4">
+        <v>15</v>
+      </c>
+      <c r="D156" s="4">
+        <v>7</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" s="4">
+        <v>15</v>
+      </c>
+      <c r="G156" s="14"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="14"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>5</v>
+      </c>
+      <c r="B157" s="3">
+        <v>220</v>
+      </c>
+      <c r="C157" s="4">
+        <v>16</v>
+      </c>
+      <c r="D157" s="4">
+        <v>7</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F157" s="4">
+        <v>17</v>
+      </c>
+      <c r="G157" s="14"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="14"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>5</v>
+      </c>
+      <c r="B158" s="3">
+        <v>220</v>
+      </c>
+      <c r="C158" s="4">
+        <v>17</v>
+      </c>
+      <c r="D158" s="4">
+        <v>7</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" s="4">
+        <v>33</v>
+      </c>
+      <c r="G158" s="14"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="14"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>5</v>
+      </c>
+      <c r="B159" s="3">
+        <v>220</v>
+      </c>
+      <c r="C159" s="4">
+        <v>18</v>
+      </c>
+      <c r="D159" s="4">
+        <v>7</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" s="4">
+        <v>29</v>
+      </c>
+      <c r="G159" s="14"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="14"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>5</v>
+      </c>
+      <c r="B160" s="3">
+        <v>220</v>
+      </c>
+      <c r="C160" s="4">
+        <v>19</v>
+      </c>
+      <c r="D160" s="4">
+        <v>7</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" s="4">
+        <v>29</v>
+      </c>
+      <c r="G160" s="14"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="14"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <v>5</v>
+      </c>
+      <c r="B161" s="3">
+        <v>220</v>
+      </c>
+      <c r="C161" s="4">
+        <v>20</v>
+      </c>
+      <c r="D161" s="4">
+        <v>7</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" s="4">
+        <v>16</v>
+      </c>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>5</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="4">
+        <v>21</v>
+      </c>
+      <c r="D162" s="4">
+        <v>7</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F162" s="4">
+        <v>25</v>
+      </c>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>5</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="4">
+        <v>22</v>
+      </c>
+      <c r="D163" s="4">
+        <v>7</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F163" s="4">
+        <v>27</v>
+      </c>
+      <c r="G163" s="14"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="14"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>5</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="4">
+        <v>23</v>
+      </c>
+      <c r="D164" s="4">
+        <v>7</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" s="4">
+        <v>16</v>
+      </c>
+      <c r="G164" s="14"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="14"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>5</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="4">
+        <v>24</v>
+      </c>
+      <c r="D165" s="4">
+        <v>7</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F165" s="4">
+        <v>20</v>
+      </c>
+      <c r="G165" s="14"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="14"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>5</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="4">
+        <v>25</v>
+      </c>
+      <c r="D166" s="4">
+        <v>7</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F166" s="4">
+        <v>18</v>
+      </c>
+      <c r="G166" s="14"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="14"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>5</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="4">
+        <v>26</v>
+      </c>
+      <c r="D167" s="4">
+        <v>7</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" s="4">
+        <v>14</v>
+      </c>
+      <c r="G167" s="14"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="14"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>5</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="4">
+        <v>27</v>
+      </c>
+      <c r="D168" s="4">
+        <v>7</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" s="4">
+        <v>0</v>
+      </c>
+      <c r="G168" s="14"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="14"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>5</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="4">
+        <v>28</v>
+      </c>
+      <c r="D169" s="4">
+        <v>7</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" s="4">
+        <v>10</v>
+      </c>
+      <c r="G169" s="14"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="14"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>5</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="4">
+        <v>29</v>
+      </c>
+      <c r="D170" s="4">
+        <v>7</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" s="4">
+        <v>19</v>
+      </c>
+      <c r="G170" s="14"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="14"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>5</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="4">
+        <v>30</v>
+      </c>
+      <c r="D171" s="4">
+        <v>7</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F171" s="4">
+        <v>15</v>
+      </c>
+      <c r="G171" s="14"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="14"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>5</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="4">
+        <v>31</v>
+      </c>
+      <c r="D172" s="4">
+        <v>7</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F172" s="4">
+        <v>10</v>
+      </c>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>5</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="4">
+        <v>32</v>
+      </c>
+      <c r="D173" s="4">
+        <v>7</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F173" s="4">
+        <v>15</v>
+      </c>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>5</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="4">
+        <v>33</v>
+      </c>
+      <c r="D174" s="4">
+        <v>7</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" s="4">
+        <v>15</v>
+      </c>
+      <c r="G174" s="14"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="14"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>5</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="4">
+        <v>34</v>
+      </c>
+      <c r="D175" s="4">
+        <v>7</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" s="4">
+        <v>16</v>
+      </c>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="13"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>5</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="4">
+        <v>35</v>
+      </c>
+      <c r="D176" s="4">
+        <v>7</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" s="4">
+        <v>16</v>
+      </c>
+      <c r="G176" s="14"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="14"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>5</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="4">
+        <v>36</v>
+      </c>
+      <c r="D177" s="4">
+        <v>7</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" s="4">
+        <v>9</v>
+      </c>
+      <c r="G177" s="14"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="14"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>5</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="4">
+        <v>37</v>
+      </c>
+      <c r="D178" s="4">
+        <v>7</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" s="4">
+        <v>19</v>
+      </c>
+      <c r="G178" s="14"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="14"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>5</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="4">
+        <v>38</v>
+      </c>
+      <c r="D179" s="4">
+        <v>7</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179" s="4">
+        <v>24</v>
+      </c>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="13"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <v>5</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="4">
+        <v>39</v>
+      </c>
+      <c r="D180" s="4">
+        <v>7</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F180" s="4">
+        <v>14</v>
+      </c>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>5</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="4">
+        <v>40</v>
+      </c>
+      <c r="D181" s="4">
+        <v>7</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F181" s="4">
+        <v>18</v>
+      </c>
+      <c r="G181" s="14"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="14"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>5</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182" s="4">
+        <v>41</v>
+      </c>
+      <c r="D182" s="4">
+        <v>7</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G182" s="4"/>
+      <c r="H182" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I182" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>5</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C183" s="4">
+        <v>42</v>
+      </c>
+      <c r="D183" s="4">
+        <v>7</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="9" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffin/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F46E4B-58C1-B342-AC0A-B56EEF4BCAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9DECF-FE41-154F-9050-ACAA8D40182F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28740" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="28">
   <si>
     <t>block</t>
   </si>
@@ -631,10 +631,10 @@
   <dimension ref="A1:J183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="198" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H157" sqref="H157"/>
+      <selection pane="bottomRight" activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4697,9 +4697,7 @@
       </c>
       <c r="G143" s="13"/>
       <c r="H143" s="13"/>
-      <c r="I143" s="13">
-        <v>1</v>
-      </c>
+      <c r="I143" s="13"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
@@ -5595,12 +5593,8 @@
         <v>27</v>
       </c>
       <c r="G182" s="4"/>
-      <c r="H182" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I182" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="H182" s="7"/>
+      <c r="I182" s="9"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="4">

--- a/data/fecundity_assay_count.xlsx
+++ b/data/fecundity_assay_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffin/Desktop/Hendry_Lab/eco_traps_fecundity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9DECF-FE41-154F-9050-ACAA8D40182F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884779B-751A-1D4F-8E14-6CD4A12B57A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28740" windowHeight="16940" xr2:uid="{086D0E81-9CBA-FC49-8911-B6B57AB97DAB}"/>
   </bookViews>
